--- a/pval_genotyped_df.xlsx
+++ b/pval_genotyped_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,11 +486,6 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>POS_ALT</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>ANN</t>
         </is>
       </c>
@@ -498,42 +493,37 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>snp_2L:25635973_A</t>
+          <t>snp_2L:25635973_G&gt;A</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.546836814719604</v>
+        <v>2.552788150051166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003509951344573532</v>
+        <v>0.0002634277760879</v>
       </c>
       <c r="D2" t="n">
-        <v>1.525382400314818</v>
+        <v>1.543078113977882</v>
       </c>
       <c r="E2" t="n">
-        <v>4.252296184532088</v>
+        <v>4.223199901554087</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04274954289917687</v>
+        <v>0.0430890038553904</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07670975378589145</v>
+        <v>0.07729051491673521</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002850080491793708</v>
+        <v>0.0027690683671881</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>25635973_A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
         <is>
           <t>A|missense_variant|MODERATE|CYP4J5|AGAP006048|transcript|AGAP006048-RA|protein_coding|1/2|c.127C&gt;T|p.Leu43Phe|217/1969|127/1599|43/532||</t>
         </is>
@@ -542,132 +532,117 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>snp_2R:28497967_C</t>
+          <t>snp_2R:28497967_G&gt;C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.053017018428082</v>
+        <v>3.391937958742262</v>
       </c>
       <c r="C3" t="n">
-        <v>1.796758486646993e-06</v>
+        <v>2.071944966169791e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>1.930931902875986</v>
+        <v>2.139118897479176</v>
       </c>
       <c r="E3" t="n">
-        <v>4.827157757831158</v>
+        <v>5.378496318982019</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07932344246406953</v>
+        <v>0.0918288550494881</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1388252053445094</v>
+        <v>0.1593322330393672</v>
       </c>
       <c r="I3" t="n">
-        <v>2.80570748299492e-05</v>
+        <v>3.708781489443925e-06</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>28497967_C</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C|missense_variant|MODERATE|CYP6P4|AGAP002867|transcript|AGAP002867-RA|protein_coding|1/2|c.708C&gt;G|p.Ile236Met|708/1521|708/1521|236/506||</t>
+          <t>C|missense_variant|MODERATE|CYP6P4|AGAP002867|transcript|AGAP002867-RA|protein_coding|1/2|c.708C&gt;G|p.Ile236Met|708/1521|708/1521|236/506||,A|synonymous_variant|LOW|CYP6P4|AGAP002867|transcript|AGAP002867-RA|protein_coding|1/2|c.708C&gt;T|p.Ile236Ile|708/1521|708/1521|236/506||,A|intron_variant|MODIFIER|AGAP002859|AGAP002859|transcript|AGAP002859-RA|protein_coding|4/8|c.1972-8505G&gt;A||||||,C|intron_variant|MODIFIER|AGAP002859|AGAP002859|transcript|AGAP002859-RA|protein_coding|4/8|c.1972-8505G&gt;C||||||</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>snp_2L:2422652_T</t>
+          <t>snp_2L:2422652_A&gt;T</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.569298644977267</v>
+        <v>1.794557360596731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03623237534512248</v>
+        <v>0.0063004751674424</v>
       </c>
       <c r="D4" t="n">
-        <v>1.029328841911747</v>
+        <v>1.17963354057361</v>
       </c>
       <c r="E4" t="n">
-        <v>2.392528157040249</v>
+        <v>2.730030988188022</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01352776228954156</v>
+        <v>0.0225951933028716</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02477012326561371</v>
+        <v>0.0411050071004628</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1710505161641829</v>
+        <v>0.030480677161411</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2422652_T</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RH|protein_coding|20/32|c.3024A&gt;T|p.Leu1008Phe|3024/6387|3024/6387|1008/2128||</t>
+          <t>T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RH|protein_coding|20/32|c.3024A&gt;T|p.Leu1008Phe|3024/6387|3024/6387|1008/2128||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RA|protein_coding|18/30|c.2940A&gt;T|p.Leu980Phe|2940/6195|2940/6195|980/2064||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RB|protein_coding|19/31|c.2973A&gt;T|p.Leu991Phe|2973/6336|2973/6336|991/2111||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RC|protein_coding|18/30|c.2940A&gt;T|p.Leu980Phe|2940/6225|2940/6225|980/2074||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RD|protein_coding|19/31|c.2985A&gt;T|p.Leu995Phe|2985/6357|2985/6357|995/2118||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RE|protein_coding|17/29|c.2775A&gt;T|p.Leu925Phe|2775/6030|2775/6030|925/2009||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RF|protein_coding|18/30|c.2940A&gt;T|p.Leu980Phe|2940/6225|2940/6225|980/2074||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RG|protein_coding|17/29|c.2811A&gt;T|p.Leu937Phe|2811/6096|2811/6096|937/2031||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RI|protein_coding|20/32|c.3024A&gt;T|p.Leu1008Phe|3024/6387|3024/6387|1008/2128||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RJ|protein_coding|19/31|c.2973A&gt;T|p.Leu991Phe|2973/6258|2973/6258|991/2085||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RK|protein_coding|20/32|c.3024A&gt;T|p.Leu1008Phe|3024/6309|3024/6309|1008/2102||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RL|protein_coding|19/31|c.2985A&gt;T|p.Leu995Phe|2985/6279|2985/6279|995/2092||,T|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RM|protein_coding|19/31|c.2985A&gt;T|p.Leu995Phe|2985/6279|2985/6279|995/2092||</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>snp_2L:2422651_C</t>
+          <t>snp_2L:2422651_T&gt;C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6333380884775421</v>
+        <v>0.5462623624293711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03513223847841236</v>
+        <v>0.0047546291158131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.414094223446556</v>
+        <v>0.359001568069596</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9686615064992716</v>
+        <v>0.8312012958925828</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01369321850229099</v>
+        <v>0.024192501612509</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02507021727169497</v>
+        <v>0.0439624089609002</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1698058193123264</v>
+        <v>0.0243165317637303</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2422651_C</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RH|protein_coding|20/32|c.3023T&gt;C|p.Leu1008Ser|3023/6387|3023/6387|1008/2128||</t>
+          <t>C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RH|protein_coding|20/32|c.3023T&gt;C|p.Leu1008Ser|3023/6387|3023/6387|1008/2128||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RA|protein_coding|18/30|c.2939T&gt;C|p.Leu980Ser|2939/6195|2939/6195|980/2064||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RB|protein_coding|19/31|c.2972T&gt;C|p.Leu991Ser|2972/6336|2972/6336|991/2111||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RC|protein_coding|18/30|c.2939T&gt;C|p.Leu980Ser|2939/6225|2939/6225|980/2074||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RD|protein_coding|19/31|c.2984T&gt;C|p.Leu995Ser|2984/6357|2984/6357|995/2118||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RE|protein_coding|17/29|c.2774T&gt;C|p.Leu925Ser|2774/6030|2774/6030|925/2009||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RF|protein_coding|18/30|c.2939T&gt;C|p.Leu980Ser|2939/6225|2939/6225|980/2074||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RG|protein_coding|17/29|c.2810T&gt;C|p.Leu937Ser|2810/6096|2810/6096|937/2031||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RI|protein_coding|20/32|c.3023T&gt;C|p.Leu1008Ser|3023/6387|3023/6387|1008/2128||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RJ|protein_coding|19/31|c.2972T&gt;C|p.Leu991Ser|2972/6258|2972/6258|991/2085||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RK|protein_coding|20/32|c.3023T&gt;C|p.Leu1008Ser|3023/6309|3023/6309|1008/2102||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RL|protein_coding|19/31|c.2984T&gt;C|p.Leu995Ser|2984/6279|2984/6279|995/2092||,C|missense_variant|MODERATE|para|AGAP004707|transcript|AGAP004707-RM|protein_coding|19/31|c.2984T&gt;C|p.Leu995Ser|2984/6279|2984/6279|995/2092||</t>
         </is>
       </c>
     </row>
